--- a/Plots and Tables/RVCAT/Current_yr_catch_totals.xlsx
+++ b/Plots and Tables/RVCAT/Current_yr_catch_totals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Common name</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Offshore</t>
   </si>
   <si>
-    <t>Alewife</t>
-  </si>
-  <si>
     <t>Blackfin Cisco</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>lean Lake Trout</t>
   </si>
   <si>
-    <t>Longnose Sucker</t>
-  </si>
-  <si>
     <t>Ninespine Stickleback</t>
   </si>
   <si>
@@ -68,12 +62,6 @@
     <t>Rainbow Smelt</t>
   </si>
   <si>
-    <t>Round Whitefish</t>
-  </si>
-  <si>
-    <t>Ruffe</t>
-  </si>
-  <si>
     <t>Shortjaw Cisco</t>
   </si>
   <si>
@@ -86,24 +74,9 @@
     <t>Spoonhead Sculpin</t>
   </si>
   <si>
-    <t>Spottail Shiner</t>
-  </si>
-  <si>
-    <t>Threespine Stickleback</t>
-  </si>
-  <si>
-    <t>Trout-perch</t>
-  </si>
-  <si>
     <t>Unidentified Coregonus</t>
   </si>
   <si>
-    <t>Yellow Perch</t>
-  </si>
-  <si>
-    <t>Alosa pseudoharengus</t>
-  </si>
-  <si>
     <t>Coregonus nigripinnis</t>
   </si>
   <si>
@@ -128,9 +101,6 @@
     <t>Coregonus clupeaformis</t>
   </si>
   <si>
-    <t>Catostomus catostomus</t>
-  </si>
-  <si>
     <t>Pungitius pungitius</t>
   </si>
   <si>
@@ -140,12 +110,6 @@
     <t>Osmerus mordax</t>
   </si>
   <si>
-    <t>Prosopium cylindraceum</t>
-  </si>
-  <si>
-    <t>Gymnocephalus cernuus</t>
-  </si>
-  <si>
     <t>Coregonus zenithicus</t>
   </si>
   <si>
@@ -158,19 +122,7 @@
     <t>Cottus ricei</t>
   </si>
   <si>
-    <t>Notropis hudsonius</t>
-  </si>
-  <si>
-    <t>Gasterosteus aculeatus</t>
-  </si>
-  <si>
-    <t>Percopsis omiscomaycus</t>
-  </si>
-  <si>
     <t>Coregonus spp.</t>
-  </si>
-  <si>
-    <t>Perca flavescens</t>
   </si>
 </sst>
 </file>
@@ -240,10 +192,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -254,13 +206,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1210.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -268,13 +220,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>1622.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -282,13 +234,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>18.0</v>
+        <v>87.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -296,13 +248,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>139.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>2822.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,13 +262,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>11073.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -324,13 +276,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="9">
@@ -338,13 +290,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0</v>
+        <v>191.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1706.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -352,13 +304,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>1512.0</v>
+        <v>16.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -366,13 +318,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>104.0</v>
+        <v>13.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -380,13 +332,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>122.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -394,13 +346,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>914.0</v>
+        <v>389.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -408,13 +360,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>878.0</v>
+        <v>11.0</v>
       </c>
       <c r="D14" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -422,13 +374,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>18542.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
@@ -436,10 +388,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>46.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -450,13 +402,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -464,124 +416,12 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>254.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="n">
-        <v>345.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="n">
-        <v>693.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D26" t="n">
         <v>0.0</v>
       </c>
     </row>
